--- a/public/lotes.xlsx
+++ b/public/lotes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\AgroRegistro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\AgroRegistro\agroregistro\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DFC605-1303-442D-8E9B-2E4B614D5C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D7CE1C-150F-4BA9-876D-34D003B53332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{617CBB29-B6E6-4F00-B689-1797140553DD}"/>
   </bookViews>
@@ -283,16 +283,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -328,7 +320,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,7 +644,7 @@
     <col min="1" max="6" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1285,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/lotes.xlsx
+++ b/public/lotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\AgroRegistro\agroregistro\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D7CE1C-150F-4BA9-876D-34D003B53332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B33B593-1733-4C15-AFDE-B64264AC9079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{617CBB29-B6E6-4F00-B689-1797140553DD}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>establecimiento</t>
   </si>
   <si>
-    <t>activo (true / false)</t>
-  </si>
-  <si>
     <t>cultivo</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>activo</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CD60CC-0FC5-4040-9F4B-31C3B4389F17}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -652,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -661,627 +663,627 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3">
         <v>43.5</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6">
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
       <c r="D11">
         <v>16.5</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>16.5</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>32.5</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>16.25</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
       </c>
       <c r="D16">
         <v>35.369999999999997</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>19.5</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>0.01</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>20.5</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
       </c>
       <c r="D22">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>18.5</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25">
         <v>18.5</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>18.5</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30">
         <v>18.5</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31">
         <v>18.5</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32">
         <v>6.5650000000000004</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
